--- a/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.9274398254360046</v>
+        <v>-1.9274398306147003</v>
       </c>
       <c r="C2">
-        <v>-4.4839668260225087</v>
+        <v>-4.4839667993468568</v>
       </c>
       <c r="D2">
-        <v>-5.3053286443179344</v>
+        <v>-5.3053286405100746</v>
       </c>
       <c r="E2">
-        <v>-4.6333036796635589</v>
+        <v>-4.6333036682691029</v>
       </c>
       <c r="F2">
-        <v>-14.864818216063133</v>
+        <v>-14.864818207238917</v>
       </c>
       <c r="G2">
-        <v>6.7689535130204215</v>
+        <v>6.7689535539948986</v>
       </c>
       <c r="H2">
-        <v>-5.2912110373143442</v>
+        <v>-5.2912110237265431</v>
       </c>
       <c r="I2">
-        <v>5.4262366816346912</v>
+        <v>5.426236695219778</v>
       </c>
       <c r="J2">
-        <v>4.2145371355887011</v>
+        <v>4.2145371965688776</v>
       </c>
       <c r="K2">
-        <v>-13.924385960099778</v>
+        <v>-13.924385962514924</v>
       </c>
       <c r="L2">
-        <v>7.578570381098154</v>
+        <v>7.5785703688797561</v>
       </c>
       <c r="M2">
-        <v>-1.9864916273402473</v>
+        <v>-1.986491617279313</v>
       </c>
       <c r="N2">
-        <v>-0.2589885236546044</v>
+        <v>-0.25898851514518867</v>
       </c>
       <c r="O2">
-        <v>9.5696062971617764</v>
+        <v>9.5696063049674187</v>
       </c>
       <c r="P2">
-        <v>-1.4176621281315318</v>
+        <v>-1.4176620932764745</v>
       </c>
       <c r="Q2">
-        <v>-2.7718034885625698</v>
+        <v>-2.7718034624552845</v>
       </c>
       <c r="R2">
-        <v>-0.89241211417297273</v>
+        <v>-0.89241209100717223</v>
       </c>
       <c r="S2">
-        <v>5.4187849217585526</v>
+        <v>5.4187849348887376</v>
       </c>
       <c r="T2">
-        <v>-5.6796527792429394</v>
+        <v>-5.6796527636998695</v>
       </c>
       <c r="U2">
-        <v>6.6650029878847565</v>
+        <v>6.6650029826945634</v>
       </c>
       <c r="V2">
-        <v>-6.4271308857532627</v>
+        <v>-6.4271308801502069</v>
       </c>
       <c r="W2">
-        <v>7.9654092203065225</v>
+        <v>7.9654092488137485</v>
       </c>
       <c r="X2">
-        <v>-1.700961689933788</v>
+        <v>-1.7009616528046876</v>
       </c>
       <c r="Y2">
-        <v>-2.1873202146674022</v>
+        <v>-2.1873202231452917</v>
       </c>
       <c r="Z2">
-        <v>-20.999676657233959</v>
+        <v>-20.999676658685594</v>
       </c>
       <c r="AA2">
-        <v>7.9549369480175409</v>
+        <v>7.9549369728756369</v>
       </c>
       <c r="AB2">
-        <v>-4.3144018909243078</v>
+        <v>-4.3144018594058409</v>
       </c>
       <c r="AC2">
-        <v>6.473986946035172</v>
+        <v>6.4739869775836416</v>
       </c>
       <c r="AD2">
-        <v>-6.9826334509226564</v>
+        <v>-6.9826334534986376</v>
       </c>
       <c r="AE2">
-        <v>-24.604690883464595</v>
+        <v>-24.604690868498327</v>
       </c>
       <c r="AF2">
-        <v>-2.6311456279220198</v>
+        <v>-2.6311456095102073</v>
       </c>
       <c r="AG2">
-        <v>1.0186357258195546</v>
+        <v>1.0186357242629032</v>
       </c>
       <c r="AH2">
-        <v>-1.6115077443307202</v>
+        <v>-1.6115077323546481</v>
       </c>
       <c r="AI2">
-        <v>54.050007736687988</v>
+        <v>54.050007744970529</v>
       </c>
       <c r="AJ2">
-        <v>-2.8414673376821233</v>
+        <v>-2.8414673275765772</v>
       </c>
       <c r="AK2">
-        <v>-0.596218865454054</v>
+        <v>-0.59621887730196554</v>
       </c>
       <c r="AL2">
-        <v>-7.5483046113400949</v>
+        <v>-7.5483046158287301</v>
       </c>
       <c r="AM2">
-        <v>-0.14615138769060201</v>
+        <v>-0.14615139040353656</v>
       </c>
       <c r="AN2">
-        <v>0.1979452110331788</v>
+        <v>0.19794520859793735</v>
       </c>
       <c r="AO2">
-        <v>-4.9633314239456752</v>
+        <v>-4.9633314111862381</v>
       </c>
       <c r="AP2">
-        <v>0.93098977100754077</v>
+        <v>0.93098978667687615</v>
       </c>
       <c r="AQ2">
-        <v>-0.33224510819828923</v>
+        <v>-0.33224509290042675</v>
       </c>
       <c r="AR2">
-        <v>0.86904281717475984</v>
+        <v>0.86904281777347214</v>
       </c>
       <c r="AS2">
-        <v>-1.048771583766227</v>
+        <v>-1.0487715666036255</v>
       </c>
       <c r="AT2">
-        <v>-1.6750466675603652</v>
+        <v>-1.6750466468628311</v>
       </c>
       <c r="AU2">
-        <v>0.78397546402285967</v>
+        <v>0.78397547417294655</v>
       </c>
       <c r="AV2">
-        <v>-2.1074321053211094</v>
+        <v>-2.107432069936638</v>
       </c>
       <c r="AW2">
-        <v>-1.7848425450874332</v>
+        <v>-1.7848425080541759</v>
       </c>
       <c r="AX2">
-        <v>-4.1527384090069237</v>
+        <v>-4.1527384034858112</v>
       </c>
       <c r="AY2">
-        <v>2.6117853157327198</v>
+        <v>2.611785322427139</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>2.9052278622843382</v>
       </c>
       <c r="C3">
-        <v>-0.94356945103381584</v>
+        <v>-0.94356946641050532</v>
       </c>
       <c r="D3">
-        <v>-0.58440280099895159</v>
+        <v>-0.5844027562283497</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036969</v>
+        <v>-11.493442252988849</v>
       </c>
       <c r="F3">
-        <v>5.9168417787171288</v>
+        <v>5.916841786399865</v>
       </c>
       <c r="G3">
-        <v>0.27918966657985922</v>
+        <v>0.27918966183086075</v>
       </c>
       <c r="H3">
-        <v>2.2629999281006365</v>
+        <v>2.262999970771074</v>
       </c>
       <c r="I3">
-        <v>0.92891164735861309</v>
+        <v>0.92891162416651218</v>
       </c>
       <c r="J3">
-        <v>-0.71816924718279207</v>
+        <v>-0.7181692404707718</v>
       </c>
       <c r="K3">
-        <v>34.572189535783984</v>
+        <v>34.572189538676021</v>
       </c>
       <c r="L3">
-        <v>29.750211330025916</v>
+        <v>29.750211327703834</v>
       </c>
       <c r="M3">
-        <v>-3.4579452677176916</v>
+        <v>-3.4581502233172441</v>
       </c>
       <c r="N3">
-        <v>-0.36339123567103143</v>
+        <v>-0.3633912371617965</v>
       </c>
       <c r="O3">
-        <v>2.7472038654160555</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="P3">
-        <v>-18.388164121127161</v>
+        <v>-18.388164110788079</v>
       </c>
       <c r="Q3">
-        <v>-3.3990013425227286</v>
+        <v>-3.3990013268306396</v>
       </c>
       <c r="R3">
-        <v>4.0238003466592582</v>
+        <v>4.0238003718172175</v>
       </c>
       <c r="S3">
-        <v>6.467208730090988</v>
+        <v>6.4672087326693664</v>
       </c>
       <c r="T3">
-        <v>6.4461594573559058</v>
+        <v>6.4461594547469883</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536734759</v>
+        <v>-5.6227008536989036</v>
       </c>
       <c r="V3">
-        <v>5.5386459589203438</v>
+        <v>5.5386459624482924</v>
       </c>
       <c r="W3">
-        <v>0.796773195115971</v>
+        <v>0.79677316717642921</v>
       </c>
       <c r="X3">
-        <v>8.4651249074665706</v>
+        <v>8.4651248821622165</v>
       </c>
       <c r="Y3">
-        <v>4.6158483471302949</v>
+        <v>4.6158483705766393</v>
       </c>
       <c r="Z3">
-        <v>-4.9296672411741138</v>
+        <v>-4.9296672327878275</v>
       </c>
       <c r="AA3">
-        <v>-0.48322961998769492</v>
+        <v>-0.48322956379395254</v>
       </c>
       <c r="AB3">
-        <v>-3.1009588224249827</v>
+        <v>-3.100958799326833</v>
       </c>
       <c r="AC3">
-        <v>1.2353645323724456</v>
+        <v>1.2353645496393928</v>
       </c>
       <c r="AD3">
-        <v>-8.9220995443943192</v>
+        <v>-8.9220995245990533</v>
       </c>
       <c r="AE3">
-        <v>-4.2977569987789863</v>
+        <v>-4.2977569786663157</v>
       </c>
       <c r="AF3">
-        <v>9.7948694693336016E-2</v>
+        <v>9.7948689537600761E-2</v>
       </c>
       <c r="AG3">
-        <v>12.501693496751789</v>
+        <v>12.501693518212948</v>
       </c>
       <c r="AH3">
-        <v>6.0753382364432369</v>
+        <v>6.0753382596074053</v>
       </c>
       <c r="AI3">
-        <v>-2.7346347956724286</v>
+        <v>-2.7346348010446704</v>
       </c>
       <c r="AJ3">
-        <v>-0.14288318811325537</v>
+        <v>-0.1428831948483868</v>
       </c>
       <c r="AK3">
-        <v>33.567125637005908</v>
+        <v>33.567125617949159</v>
       </c>
       <c r="AL3">
-        <v>-0.86949409626960716</v>
+        <v>-0.86949407617300456</v>
       </c>
       <c r="AM3">
-        <v>-0.93134488839932816</v>
+        <v>-0.93134487839641666</v>
       </c>
       <c r="AN3">
-        <v>2.2223642129504215</v>
+        <v>2.2223642054436286</v>
       </c>
       <c r="AO3">
-        <v>11.455985310789933</v>
+        <v>11.455985322210481</v>
       </c>
       <c r="AP3">
-        <v>-6.8102528310910611</v>
+        <v>-6.81025282446143</v>
       </c>
       <c r="AQ3">
-        <v>-1.6364824657988504</v>
+        <v>-1.6364824433224752</v>
       </c>
       <c r="AR3">
-        <v>-2.3739017968831497</v>
+        <v>-2.3739018077896903</v>
       </c>
       <c r="AS3">
-        <v>1.3469748540114164</v>
+        <v>1.346974864485069</v>
       </c>
       <c r="AT3">
-        <v>-3.4073739961350524</v>
+        <v>-3.4073739832453613</v>
       </c>
       <c r="AU3">
-        <v>-0.61294424766331035</v>
+        <v>-0.61294424784278956</v>
       </c>
       <c r="AV3">
-        <v>-1.1314582414370036</v>
+        <v>-1.1314582265113975</v>
       </c>
       <c r="AW3">
-        <v>-3.8330703214462005</v>
+        <v>-3.8330703110272659</v>
       </c>
       <c r="AX3">
-        <v>-24.205641529658756</v>
+        <v>-24.205641515611003</v>
       </c>
       <c r="AY3">
-        <v>-13.008898490438762</v>
+        <v>-13.008898484541751</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.9274398306147003</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-4.4839667993468568</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-5.3053286405100746</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-4.6333036682691029</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-14.864818207238917</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>6.7689535539948986</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.2912110237265431</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.426236695219778</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.2145371965688776</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-13.924385962514924</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.5785703688797561</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.986491617279313</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-0.25898851514518867</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.5696063049674187</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>-1.4176620932764745</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.7718034624552845</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.89241209100717223</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.4187849348887376</v>
+        <v>5.4188404625940922</v>
       </c>
       <c r="T2">
-        <v>-5.6796527636998695</v>
+        <v>-5.6796312487197795</v>
       </c>
       <c r="U2">
-        <v>6.6650029826945634</v>
+        <v>6.6650367169862221</v>
       </c>
       <c r="V2">
-        <v>-6.4271308801502069</v>
+        <v>-6.4271097001948538</v>
       </c>
       <c r="W2">
-        <v>7.9654092488137485</v>
+        <v>7.9654497396386024</v>
       </c>
       <c r="X2">
-        <v>-1.7009616528046876</v>
+        <v>-1.7010115217554329</v>
       </c>
       <c r="Y2">
-        <v>-2.1873202231452917</v>
+        <v>-2.1873427495516613</v>
       </c>
       <c r="Z2">
-        <v>-20.999676658685594</v>
+        <v>-20.99972263663928</v>
       </c>
       <c r="AA2">
-        <v>7.9549369728756369</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-4.3144018594058409</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.4739869775836416</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-6.9826334534986376</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.604690868498327</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-2.6311456095102073</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.0186357242629032</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-1.6115077323546481</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>54.050007744970529</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-2.8414673275765772</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>-0.59621887730196554</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.5483046158287301</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.14615139040353656</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.19794520859793735</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-4.9633314111862381</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.93098978667687615</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.33224509290042675</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.86904281777347214</v>
       </c>
       <c r="AS2">
-        <v>-1.0487715666036255</v>
+        <v>-1.048748075700866</v>
       </c>
       <c r="AT2">
-        <v>-1.6750466468628311</v>
+        <v>-1.6750180668858317</v>
       </c>
       <c r="AU2">
         <v>0.78397547417294655</v>
       </c>
       <c r="AV2">
-        <v>-2.107432069936638</v>
+        <v>-2.1074140243670403</v>
       </c>
       <c r="AW2">
-        <v>-1.7848425080541759</v>
+        <v>-1.7848944493119134</v>
       </c>
       <c r="AX2">
-        <v>-4.1527384034858112</v>
+        <v>-4.1527791101253753</v>
       </c>
       <c r="AY2">
-        <v>2.611785322427139</v>
+        <v>2.6117559842354066</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.9052278622843382</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.94356946641050532</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5844027562283497</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-11.493442252988849</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.916841786399865</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.27918966183086075</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.262999970771074</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.92891162416651218</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.7181692404707718</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.572189538676021</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>29.750211327703834</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.4581502233172441</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.3633912371617965</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.7472038679327975</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-18.388164110788079</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-3.3990013268306396</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>4.0238003718172175</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.4672087326693664</v>
       </c>
       <c r="T3">
-        <v>6.4461594547469883</v>
+        <v>6.4461856349252846</v>
       </c>
       <c r="U3">
-        <v>-5.6227008536989036</v>
+        <v>-5.6226697050781498</v>
       </c>
       <c r="V3">
-        <v>5.5386459624482924</v>
+        <v>5.5386459624482729</v>
       </c>
       <c r="W3">
-        <v>0.79677316717642921</v>
+        <v>0.79677316717644087</v>
       </c>
       <c r="X3">
-        <v>8.4651248821622165</v>
+        <v>8.4651816466751288</v>
       </c>
       <c r="Y3">
-        <v>4.6158483705766393</v>
+        <v>30.622443090146039</v>
       </c>
       <c r="Z3">
-        <v>-4.9296672327878275</v>
+        <v>-0.86946759350863723</v>
       </c>
       <c r="AA3">
-        <v>-0.48322956379395254</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-3.100958799326833</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.2353645496393928</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-8.9220995245990533</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-4.2977569786663157</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>9.7948689537600761E-2</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>12.501693518212948</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.0753382596074053</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-2.7346348010446704</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.1428831948483868</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>33.567125617949159</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-0.86949407617300456</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.93134487839641666</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.2223642054436286</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>11.455985322210481</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-6.81025282446143</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.6364824433224752</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-2.3739018077896903</v>
+        <v>-2.3738507438734198</v>
       </c>
       <c r="AS3">
-        <v>1.346974864485069</v>
+        <v>1.3469502251055239</v>
       </c>
       <c r="AT3">
-        <v>-3.4073739832453613</v>
+        <v>-3.4073418360722902</v>
       </c>
       <c r="AU3">
         <v>-0.61294424784278956</v>
       </c>
       <c r="AV3">
-        <v>-1.1314582265113975</v>
+        <v>-1.1315103190709801</v>
       </c>
       <c r="AW3">
-        <v>-3.8330703110272659</v>
+        <v>-3.8330466082780505</v>
       </c>
       <c r="AX3">
-        <v>-24.205641515611003</v>
+        <v>-22.004202679900949</v>
       </c>
       <c r="AY3">
-        <v>-13.008898484541751</v>
+        <v>20.969429009877594</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.9273798830459949</v>
+        <v>9.5695481095730948</v>
       </c>
       <c r="C2">
-        <v>-0.85978248040097949</v>
+        <v>-0.89239373006500067</v>
       </c>
       <c r="D2">
-        <v>-5.3053642978939841</v>
+        <v>0.19794520859791626</v>
       </c>
       <c r="E2">
-        <v>-8.5172235621588079</v>
+        <v>-0.33222657568753378</v>
       </c>
       <c r="F2">
         <v>-14.864795011933959</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="C3">
-        <v>0.23611233122715827</v>
+        <v>4.0238409481603599</v>
       </c>
       <c r="D3">
-        <v>-0.58432594194640375</v>
+        <v>2.2223642054436512</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036953</v>
+        <v>-1.6192884509807115</v>
       </c>
       <c r="F3">
         <v>5.9168124685989207</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.9273798830459949</v>
+        <v>10.713211367020678</v>
       </c>
       <c r="C2">
-        <v>-0.85978248040097949</v>
+        <v>8.8538691746208524</v>
       </c>
       <c r="D2">
-        <v>-5.3053642978939841</v>
+        <v>8.5158951133635679</v>
       </c>
       <c r="E2">
-        <v>-8.5172235621588079</v>
+        <v>-0.18850371322243292</v>
       </c>
       <c r="F2">
         <v>-14.864795011933959</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.9052278543388654</v>
+        <v>28.480680972077906</v>
       </c>
       <c r="C3">
-        <v>0.23611233122715827</v>
+        <v>2.7472038679327975</v>
       </c>
       <c r="D3">
-        <v>-0.58432594194640375</v>
+        <v>1.3495636257163581</v>
       </c>
       <c r="E3">
-        <v>-11.493442251036953</v>
+        <v>2.2223642054436512</v>
       </c>
       <c r="F3">
         <v>5.9168124685989207</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-2.0276497969043348</v>
+      </c>
+      <c r="C2">
+        <v>-0.85978245271316722</v>
+      </c>
+      <c r="D2">
+        <v>-8.0391054283110073</v>
+      </c>
+      <c r="E2">
+        <v>-8.3397915412257113</v>
+      </c>
+      <c r="F2">
+        <v>-14.864795003109743</v>
+      </c>
+      <c r="G2">
+        <v>6.769006547604703</v>
+      </c>
+      <c r="H2">
+        <v>-5.0145384392786125</v>
+      </c>
+      <c r="I2">
+        <v>5.2487406953131899</v>
+      </c>
+      <c r="J2">
+        <v>4.0070818065649458</v>
+      </c>
+      <c r="K2">
+        <v>5.1259471779070056</v>
+      </c>
+      <c r="L2">
+        <v>7.844213474001144</v>
+      </c>
+      <c r="M2">
+        <v>-1.9865163669401478</v>
+      </c>
+      <c r="N2">
         <v>10.713211367020678</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.8538691746208524</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>-1.4176620932764745</v>
+      </c>
+      <c r="Q2">
+        <v>-6.4676301290774036</v>
+      </c>
+      <c r="R2">
+        <v>-0.89239373006500067</v>
+      </c>
+      <c r="S2">
+        <v>5.8044993939610654</v>
+      </c>
+      <c r="T2">
+        <v>-5.6796312487197795</v>
+      </c>
+      <c r="U2">
+        <v>6.7524028494628148</v>
+      </c>
+      <c r="V2">
+        <v>-6.9272118635290054</v>
+      </c>
+      <c r="W2">
+        <v>5.9531478731921723</v>
+      </c>
+      <c r="X2">
+        <v>-2.1549880113899449</v>
+      </c>
+      <c r="Y2">
+        <v>-2.1886165172275449</v>
+      </c>
+      <c r="Z2">
+        <v>-20.99972263663928</v>
+      </c>
+      <c r="AA2">
+        <v>7.756773063573462</v>
+      </c>
+      <c r="AB2">
+        <v>13.785339783088112</v>
+      </c>
+      <c r="AC2">
+        <v>5.1358016956636865</v>
+      </c>
+      <c r="AD2">
+        <v>-2.1318084020458672</v>
+      </c>
+      <c r="AE2">
+        <v>-24.604690868498327</v>
+      </c>
+      <c r="AF2">
+        <v>-2.6311456095102073</v>
+      </c>
+      <c r="AG2">
+        <v>1.0410613141796503</v>
+      </c>
+      <c r="AH2">
+        <v>-2.965319835623224</v>
+      </c>
+      <c r="AI2">
+        <v>53.9816678219442</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.9121362442635261</v>
+      </c>
+      <c r="AK2">
+        <v>-2.0379178612530446</v>
+      </c>
+      <c r="AL2">
+        <v>-7.5483282838225447</v>
+      </c>
+      <c r="AM2">
         <v>8.5158951133635679</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>-0.18850371322243292</v>
       </c>
-      <c r="F2">
-        <v>-14.864795011933959</v>
-      </c>
-      <c r="G2">
-        <v>6.7690065066302072</v>
-      </c>
-      <c r="H2">
-        <v>-5.2912415618495512</v>
-      </c>
-      <c r="I2">
-        <v>5.4262366816346912</v>
-      </c>
-      <c r="J2">
-        <v>4.2145371355887367</v>
-      </c>
-      <c r="K2">
-        <v>6.2125230885476084</v>
-      </c>
-      <c r="L2">
-        <v>7.5786690173940752</v>
-      </c>
-      <c r="M2">
-        <v>-1.9865163770010801</v>
-      </c>
-      <c r="N2">
-        <v>10.638370688995746</v>
-      </c>
-      <c r="O2">
-        <v>9.5695481017674577</v>
-      </c>
-      <c r="P2">
-        <v>-1.4176621281315318</v>
-      </c>
-      <c r="Q2">
-        <v>-6.4676301541923014</v>
-      </c>
-      <c r="R2">
-        <v>-0.8923937532308055</v>
-      </c>
-      <c r="S2">
-        <v>5.4188404494639002</v>
-      </c>
-      <c r="T2">
-        <v>-5.6796312642628539</v>
-      </c>
-      <c r="U2">
-        <v>6.6650367221764153</v>
-      </c>
-      <c r="V2">
-        <v>-6.4271097057979105</v>
-      </c>
-      <c r="W2">
-        <v>7.9526089752528897</v>
-      </c>
-      <c r="X2">
-        <v>-1.7010115588845145</v>
-      </c>
-      <c r="Y2">
-        <v>-2.1873427410737736</v>
-      </c>
-      <c r="Z2">
-        <v>-20.999722635187645</v>
-      </c>
-      <c r="AA2">
-        <v>7.9549369480175267</v>
-      </c>
-      <c r="AB2">
-        <v>13.785339745607661</v>
-      </c>
-      <c r="AC2">
-        <v>6.4739044131156511</v>
-      </c>
-      <c r="AD2">
-        <v>-2.0254659943670643</v>
-      </c>
-      <c r="AE2">
-        <v>-24.604690883464595</v>
-      </c>
-      <c r="AF2">
-        <v>-2.6311456279220198</v>
-      </c>
-      <c r="AG2">
-        <v>1.0186704521694301</v>
-      </c>
-      <c r="AH2">
-        <v>-1.6115077443307202</v>
-      </c>
-      <c r="AI2">
-        <v>54.050082380321754</v>
-      </c>
-      <c r="AJ2">
-        <v>-1.0955270034735378</v>
-      </c>
-      <c r="AK2">
-        <v>-0.59626529164897202</v>
-      </c>
-      <c r="AL2">
-        <v>-7.5483282793339113</v>
-      </c>
-      <c r="AM2">
-        <v>8.4222841484188216</v>
-      </c>
-      <c r="AN2">
-        <v>0.19794521103315774</v>
-      </c>
       <c r="AO2">
-        <v>-4.963349707894043</v>
+        <v>-4.9633496951346077</v>
       </c>
       <c r="AP2">
-        <v>0.67627802166162088</v>
+        <v>0.67627804904283306</v>
       </c>
       <c r="AQ2">
-        <v>-0.33222659098539914</v>
+        <v>-0.33222657568753378</v>
       </c>
       <c r="AR2">
-        <v>0.86904281717475984</v>
+        <v>0.56262019875718905</v>
       </c>
       <c r="AS2">
-        <v>-1.0487480928634718</v>
+        <v>-1.048748075700866</v>
       </c>
       <c r="AT2">
-        <v>-1.6750180875833713</v>
+        <v>-2.2891196160746552</v>
       </c>
       <c r="AU2">
-        <v>0.78397546402285967</v>
+        <v>-0.98953710587490629</v>
       </c>
       <c r="AV2">
-        <v>-2.1228258462554597</v>
+        <v>-3.8341227502530737</v>
       </c>
       <c r="AW2">
-        <v>-1.7848944863451515</v>
+        <v>-2.8777198429501256</v>
       </c>
       <c r="AX2">
-        <v>-4.1527791156464851</v>
+        <v>-4.1769444365801798</v>
       </c>
       <c r="AY2">
-        <v>2.6117559775409891</v>
+        <v>2.6117559842354066</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.9052278622843382</v>
+      </c>
+      <c r="C3">
+        <v>0.6741216016978383</v>
+      </c>
+      <c r="D3">
+        <v>-0.58432589717576711</v>
+      </c>
+      <c r="E3">
+        <v>-11.493442252988835</v>
+      </c>
+      <c r="F3">
+        <v>5.8722892229664376</v>
+      </c>
+      <c r="G3">
+        <v>0.49805760935366883</v>
+      </c>
+      <c r="H3">
+        <v>2.262925847702109</v>
+      </c>
+      <c r="I3">
+        <v>0.92886124159055949</v>
+      </c>
+      <c r="J3">
+        <v>13.13505126568209</v>
+      </c>
+      <c r="K3">
+        <v>34.572189538676021</v>
+      </c>
+      <c r="L3">
+        <v>29.750159993380116</v>
+      </c>
+      <c r="M3">
+        <v>-4.5801773157580969</v>
+      </c>
+      <c r="N3">
         <v>28.480680972077906</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>2.7472038679327975</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-18.607648048763661</v>
+      </c>
+      <c r="Q3">
+        <v>-3.486108678613308</v>
+      </c>
+      <c r="R3">
+        <v>2.6149507078737999</v>
+      </c>
+      <c r="S3">
+        <v>6.4672087326693664</v>
+      </c>
+      <c r="T3">
+        <v>6.4569648852874781</v>
+      </c>
+      <c r="U3">
+        <v>-5.6226697050781498</v>
+      </c>
+      <c r="V3">
+        <v>5.5386459624482729</v>
+      </c>
+      <c r="W3">
+        <v>0.93962382319162563</v>
+      </c>
+      <c r="X3">
+        <v>8.4651816466751288</v>
+      </c>
+      <c r="Y3">
+        <v>30.622443090146039</v>
+      </c>
+      <c r="Z3">
+        <v>-0.96085767185243331</v>
+      </c>
+      <c r="AA3">
+        <v>-0.48322956379395254</v>
+      </c>
+      <c r="AB3">
+        <v>-1.6809534591778283</v>
+      </c>
+      <c r="AC3">
+        <v>1.2353645496393928</v>
+      </c>
+      <c r="AD3">
+        <v>-8.9221179297713871</v>
+      </c>
+      <c r="AE3">
+        <v>-4.8575879931519577</v>
+      </c>
+      <c r="AF3">
+        <v>-0.34609759420656</v>
+      </c>
+      <c r="AG3">
+        <v>12.501693518212948</v>
+      </c>
+      <c r="AH3">
+        <v>6.2546373813484655</v>
+      </c>
+      <c r="AI3">
+        <v>-1.0501480682998616</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.14285233687913312</v>
+      </c>
+      <c r="AK3">
+        <v>33.567125617949216</v>
+      </c>
+      <c r="AL3">
+        <v>-1.9615176847353908</v>
+      </c>
+      <c r="AM3">
         <v>1.3495636257163581</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.2223642054436512</v>
       </c>
-      <c r="F3">
-        <v>5.9168124685989207</v>
-      </c>
-      <c r="G3">
-        <v>0.27918966657985922</v>
-      </c>
-      <c r="H3">
-        <v>2.2629258050317023</v>
-      </c>
-      <c r="I3">
-        <v>0.92886126478264885</v>
-      </c>
-      <c r="J3">
-        <v>13.135051258033512</v>
-      </c>
-      <c r="K3">
-        <v>34.572189535783984</v>
-      </c>
-      <c r="L3">
-        <v>29.750159995702191</v>
-      </c>
-      <c r="M3">
-        <v>-3.4579226706530255</v>
-      </c>
-      <c r="N3">
-        <v>28.480680974000233</v>
-      </c>
-      <c r="O3">
-        <v>2.7472038654160555</v>
-      </c>
-      <c r="P3">
-        <v>-18.388148994769427</v>
-      </c>
-      <c r="Q3">
-        <v>-3.3990435110980113</v>
-      </c>
-      <c r="R3">
-        <v>4.0238409230023908</v>
-      </c>
-      <c r="S3">
-        <v>6.467208730090988</v>
-      </c>
-      <c r="T3">
-        <v>6.4461856375342022</v>
-      </c>
-      <c r="U3">
-        <v>-5.6226697050527212</v>
-      </c>
-      <c r="V3">
-        <v>5.5386459589203243</v>
-      </c>
-      <c r="W3">
-        <v>0.93962369653652045</v>
-      </c>
-      <c r="X3">
-        <v>8.4651816719794937</v>
-      </c>
-      <c r="Y3">
-        <v>30.622443060871134</v>
-      </c>
-      <c r="Z3">
-        <v>-0.86946760225307929</v>
-      </c>
-      <c r="AA3">
-        <v>-0.48322961998769492</v>
-      </c>
-      <c r="AB3">
-        <v>-0.25160221444597997</v>
-      </c>
-      <c r="AC3">
-        <v>1.2353645323724456</v>
-      </c>
-      <c r="AD3">
-        <v>-8.9221179495666476</v>
-      </c>
-      <c r="AE3">
-        <v>-4.2977569987790059</v>
-      </c>
-      <c r="AF3">
-        <v>9.7974567906788892E-2</v>
-      </c>
-      <c r="AG3">
-        <v>12.501693496751789</v>
-      </c>
-      <c r="AH3">
-        <v>6.2546373485448754</v>
-      </c>
-      <c r="AI3">
-        <v>-1.0501480628345805</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.14285233014399962</v>
-      </c>
-      <c r="AK3">
-        <v>33.567125637005965</v>
-      </c>
-      <c r="AL3">
-        <v>-0.86949409626960716</v>
-      </c>
-      <c r="AM3">
-        <v>1.3495636154831443</v>
-      </c>
-      <c r="AN3">
-        <v>2.2223642129504437</v>
-      </c>
       <c r="AO3">
-        <v>11.45600660693173</v>
+        <v>11.095587348924168</v>
       </c>
       <c r="AP3">
-        <v>-6.8102924949957888</v>
+        <v>-6.9149977237149276</v>
       </c>
       <c r="AQ3">
-        <v>-1.6192884783211707</v>
+        <v>-3.2852058415379868</v>
       </c>
       <c r="AR3">
-        <v>-2.3738507329668739</v>
+        <v>-2.3738507438734198</v>
       </c>
       <c r="AS3">
-        <v>1.3469502146318737</v>
+        <v>0.9404782539449591</v>
       </c>
       <c r="AT3">
-        <v>-3.4073418489619858</v>
+        <v>-3.4073418360722902</v>
       </c>
       <c r="AU3">
-        <v>-0.61294424766331035</v>
+        <v>-0.61294424784278956</v>
       </c>
       <c r="AV3">
-        <v>-1.1378993179435555</v>
+        <v>-1.1378993049618693</v>
       </c>
       <c r="AW3">
-        <v>-3.8330466186969878</v>
+        <v>-3.8330466082780505</v>
       </c>
       <c r="AX3">
-        <v>-22.004202694356717</v>
+        <v>-22.004202679900949</v>
       </c>
       <c r="AY3">
-        <v>20.969429001677238</v>
+        <v>20.9590975110047</v>
       </c>
     </row>
   </sheetData>
